--- a/data/trans_orig/IP16A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C6895BA-17BC-4526-8B12-CB4A3E729043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{898BC481-D6ED-47AE-A8C3-61A49EBA9701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{AFD68507-F154-4FA6-BE24-3AA778B4D173}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{66A0C9F0-8082-4E29-99E7-3762D367D963}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -67,21 +67,84 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>84,23%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
     <t>96,96%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>93,04%</t>
   </si>
   <si>
@@ -100,15 +163,6 @@
     <t>98,65%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
     <t>3,04%</t>
   </si>
   <si>
@@ -130,37 +184,55 @@
     <t>7,73%</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>84,23%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -196,78 +268,6 @@
     <t>6,03%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
     <t>98,11%</t>
   </si>
   <si>
@@ -319,6 +319,48 @@
     <t>Menores según si ha consumido medicamentos para la diarrea en 2012 (Tasa respuesta: 25,68%)</t>
   </si>
   <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
     <t>97,44%</t>
   </si>
   <si>
@@ -367,34 +409,34 @@
     <t>7,91%</t>
   </si>
   <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
   </si>
   <si>
     <t>97,18%</t>
@@ -415,48 +457,6 @@
     <t>1,41%</t>
   </si>
   <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>97,85%</t>
   </si>
   <si>
@@ -508,6 +508,54 @@
     <t>Menores según si ha consumido medicamentos para la diarrea en 2015 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
     <t>97,45%</t>
   </si>
   <si>
@@ -526,34 +574,52 @@
     <t>1,19%</t>
   </si>
   <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
   </si>
   <si>
     <t>96,39%</t>
@@ -572,72 +638,6 @@
   </si>
   <si>
     <t>1,71%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
   </si>
   <si>
     <t>98,61%</t>
@@ -1071,7 +1071,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982D426C-68BB-48BF-8936-67E51BC5284A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF64306-9696-45AF-862B-F7EE9C864D43}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1189,10 +1189,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1204,85 +1204,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>38747</v>
+        <v>9694</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14481</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="7">
-        <v>124</v>
-      </c>
-      <c r="N4" s="7">
-        <v>80052</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7">
-        <v>0</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2900</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2900</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1291,10 +1291,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D6" s="7">
-        <v>41306</v>
+        <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -1306,10 +1306,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="I6" s="7">
-        <v>41647</v>
+        <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -1321,10 +1321,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="N6" s="7">
-        <v>82952</v>
+        <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1350,10 +1350,10 @@
         <v>23220</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -1368,7 +1368,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -1380,10 +1380,10 @@
         <v>46344</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -1392,7 +1392,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
@@ -1401,13 +1401,13 @@
         <v>667</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -1431,13 +1431,13 @@
         <v>667</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1493,106 +1493,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
-        <v>38132</v>
+        <v>41306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="I10" s="7">
-        <v>25677</v>
+        <v>38747</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="M10" s="7">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="N10" s="7">
-        <v>63809</v>
+        <v>80052</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="7">
-        <v>685</v>
+        <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="7">
+        <v>5</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2900</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2900</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>685</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1601,10 +1601,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D12" s="7">
-        <v>38817</v>
+        <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -1616,10 +1616,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="I12" s="7">
-        <v>25677</v>
+        <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -1631,10 +1631,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="N12" s="7">
-        <v>64494</v>
+        <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -1648,106 +1648,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>4787</v>
+        <v>33756</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>35</v>
+      </c>
+      <c r="I13" s="7">
+        <v>21268</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9694</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>87</v>
+      </c>
+      <c r="N13" s="7">
+        <v>55022</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M13" s="7">
-        <v>18</v>
-      </c>
-      <c r="N13" s="7">
-        <v>14481</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1367</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>3896</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>5264</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1756,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D15" s="7">
-        <v>4787</v>
+        <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -1771,10 +1771,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I15" s="7">
-        <v>9694</v>
+        <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -1786,10 +1786,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="N15" s="7">
-        <v>14481</v>
+        <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -1803,103 +1803,103 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16" s="7">
-        <v>33756</v>
+        <v>38132</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="7">
-        <v>21268</v>
+        <v>25677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="M16" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N16" s="7">
-        <v>55022</v>
+        <v>63809</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>1367</v>
+        <v>685</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H17" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>3896</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N17" s="7">
-        <v>5264</v>
+        <v>685</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>75</v>
@@ -1911,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7">
-        <v>35123</v>
+        <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -1926,10 +1926,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I18" s="7">
-        <v>25164</v>
+        <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -1941,10 +1941,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N18" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -1991,7 +1991,7 @@
         <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>389</v>
@@ -2012,7 +2012,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>4</v>
@@ -2039,7 +2039,7 @@
         <v>87</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>88</v>
@@ -2129,7 +2129,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B213312C-222D-4642-B3FD-9AEABEC650B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AEE87C-4C01-4B73-9E42-1A57BE36FCFC}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2247,100 +2247,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>49658</v>
+        <v>2652</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>7830</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="7">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>10482</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7">
-        <v>75</v>
-      </c>
-      <c r="I4" s="7">
-        <v>49566</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="7">
-        <v>145</v>
-      </c>
-      <c r="N4" s="7">
-        <v>99224</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>98</v>
-      </c>
       <c r="P4" s="7" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2</v>
-      </c>
-      <c r="D5" s="7">
-        <v>1305</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2171</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M5" s="7">
-        <v>5</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3476</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2349,10 +2349,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="D6" s="7">
-        <v>50963</v>
+        <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -2364,10 +2364,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>78</v>
+        <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>51737</v>
+        <v>7830</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -2379,10 +2379,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="N6" s="7">
-        <v>102700</v>
+        <v>10482</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -2408,10 +2408,10 @@
         <v>35397</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>11</v>
@@ -2426,7 +2426,7 @@
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>13</v>
@@ -2438,10 +2438,10 @@
         <v>68608</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>11</v>
@@ -2450,7 +2450,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -2459,13 +2459,13 @@
         <v>1298</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -2489,13 +2489,13 @@
         <v>1298</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,106 +2551,106 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D10" s="7">
-        <v>49941</v>
+        <v>49658</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="I10" s="7">
-        <v>50784</v>
+        <v>49566</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="N10" s="7">
-        <v>100725</v>
+        <v>99224</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>2171</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" s="7">
+        <v>5</v>
+      </c>
+      <c r="N11" s="7">
+        <v>3476</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="H11" s="7">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="M11" s="7">
-        <v>0</v>
-      </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2659,10 +2659,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>49941</v>
+        <v>50963</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -2674,10 +2674,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="I12" s="7">
-        <v>50784</v>
+        <v>51737</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -2689,10 +2689,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="N12" s="7">
-        <v>100725</v>
+        <v>102700</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -2706,106 +2706,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="D13" s="7">
-        <v>2652</v>
+        <v>49106</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>67</v>
+      </c>
+      <c r="I13" s="7">
+        <v>42303</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>9</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7830</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>126</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>12</v>
+        <v>142</v>
       </c>
       <c r="N13" s="7">
-        <v>10482</v>
+        <v>91409</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>1494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>128</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>1126</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2620</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2814,10 +2814,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>3</v>
+        <v>77</v>
       </c>
       <c r="D15" s="7">
-        <v>2652</v>
+        <v>50600</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -2829,10 +2829,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>9</v>
+        <v>69</v>
       </c>
       <c r="I15" s="7">
-        <v>7830</v>
+        <v>43429</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -2844,10 +2844,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>12</v>
+        <v>146</v>
       </c>
       <c r="N15" s="7">
-        <v>10482</v>
+        <v>94029</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -2861,106 +2861,106 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D16" s="7">
-        <v>49106</v>
+        <v>49941</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H16" s="7">
+        <v>68</v>
+      </c>
+      <c r="I16" s="7">
+        <v>50784</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="7">
-        <v>67</v>
-      </c>
-      <c r="I16" s="7">
-        <v>42303</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="K16" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>135</v>
+      </c>
+      <c r="N16" s="7">
+        <v>100725</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="7">
-        <v>142</v>
-      </c>
-      <c r="N16" s="7">
-        <v>91409</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>133</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>1494</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>134</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>137</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,10 +2969,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D18" s="7">
-        <v>50600</v>
+        <v>49941</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -2984,10 +2984,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I18" s="7">
-        <v>43429</v>
+        <v>50784</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -2999,10 +2999,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="N18" s="7">
-        <v>94029</v>
+        <v>100725</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -3049,7 +3049,7 @@
         <v>143</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>528</v>
@@ -3070,7 +3070,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>6</v>
@@ -3097,7 +3097,7 @@
         <v>150</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>151</v>
@@ -3187,7 +3187,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1910B545-79E2-45C5-A708-D0740B0D2991}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E838545C-7A7F-49AC-8D4C-D35D45874ED6}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3305,10 +3305,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>49761</v>
+        <v>4512</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -3320,10 +3320,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>53418</v>
+        <v>7682</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
@@ -3335,10 +3335,10 @@
         <v>13</v>
       </c>
       <c r="M4" s="7">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>103179</v>
+        <v>12194</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
@@ -3353,7 +3353,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -3362,10 +3362,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>159</v>
@@ -3377,10 +3377,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>160</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>161</v>
@@ -3407,10 +3407,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="D6" s="7">
-        <v>49761</v>
+        <v>4512</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>13</v>
@@ -3422,10 +3422,10 @@
         <v>13</v>
       </c>
       <c r="H6" s="7">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="I6" s="7">
-        <v>53418</v>
+        <v>7682</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>13</v>
@@ -3437,10 +3437,10 @@
         <v>13</v>
       </c>
       <c r="M6" s="7">
-        <v>160</v>
+        <v>13</v>
       </c>
       <c r="N6" s="7">
-        <v>103179</v>
+        <v>12194</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>13</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3508,7 +3508,7 @@
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>167</v>
@@ -3535,7 +3535,7 @@
         <v>168</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>169</v>
@@ -3550,7 +3550,7 @@
         <v>170</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>171</v>
@@ -3609,16 +3609,16 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
-        <v>37270</v>
+        <v>49761</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
@@ -3630,10 +3630,10 @@
         <v>13</v>
       </c>
       <c r="H10" s="7">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7">
-        <v>43106</v>
+        <v>53418</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
@@ -3645,10 +3645,10 @@
         <v>13</v>
       </c>
       <c r="M10" s="7">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="N10" s="7">
-        <v>80376</v>
+        <v>103179</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
@@ -3663,7 +3663,7 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C11" s="7">
         <v>0</v>
@@ -3672,10 +3672,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>175</v>
@@ -3687,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>176</v>
@@ -3702,10 +3702,10 @@
         <v>0</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>177</v>
@@ -3717,10 +3717,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D12" s="7">
-        <v>37270</v>
+        <v>49761</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>13</v>
@@ -3732,10 +3732,10 @@
         <v>13</v>
       </c>
       <c r="H12" s="7">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="I12" s="7">
-        <v>43106</v>
+        <v>53418</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>13</v>
@@ -3747,10 +3747,10 @@
         <v>13</v>
       </c>
       <c r="M12" s="7">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="N12" s="7">
-        <v>80376</v>
+        <v>103179</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>13</v>
@@ -3764,106 +3764,106 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="D13" s="7">
-        <v>4512</v>
+        <v>30312</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="7">
+        <v>56</v>
+      </c>
+      <c r="I13" s="7">
+        <v>33335</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="7">
-        <v>8</v>
-      </c>
-      <c r="I13" s="7">
-        <v>7682</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="N13" s="7">
-        <v>12194</v>
+        <v>63648</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>13</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>21</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>21</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>2675</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>21</v>
+        <v>191</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>22</v>
+        <v>192</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,10 +3872,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D15" s="7">
-        <v>4512</v>
+        <v>32374</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>13</v>
@@ -3887,10 +3887,10 @@
         <v>13</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="I15" s="7">
-        <v>7682</v>
+        <v>33948</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>13</v>
@@ -3902,10 +3902,10 @@
         <v>13</v>
       </c>
       <c r="M15" s="7">
-        <v>13</v>
+        <v>108</v>
       </c>
       <c r="N15" s="7">
-        <v>12194</v>
+        <v>66323</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>13</v>
@@ -3919,103 +3919,103 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D16" s="7">
-        <v>30312</v>
+        <v>37270</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>33335</v>
+        <v>43106</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="7">
+        <v>111</v>
+      </c>
+      <c r="N16" s="7">
+        <v>80376</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="7">
-        <v>104</v>
-      </c>
-      <c r="N16" s="7">
-        <v>63648</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D17" s="7">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>18</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="7">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N17" s="7">
-        <v>2675</v>
+        <v>0</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>199</v>
@@ -4027,10 +4027,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D18" s="7">
-        <v>32374</v>
+        <v>37270</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>13</v>
@@ -4042,10 +4042,10 @@
         <v>13</v>
       </c>
       <c r="H18" s="7">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I18" s="7">
-        <v>33948</v>
+        <v>43106</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>13</v>
@@ -4057,10 +4057,10 @@
         <v>13</v>
       </c>
       <c r="M18" s="7">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N18" s="7">
-        <v>66323</v>
+        <v>80376</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>13</v>
@@ -4119,7 +4119,7 @@
         <v>206</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>202</v>
@@ -4128,7 +4128,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7">
         <v>3</v>
@@ -4173,7 +4173,7 @@
         <v>208</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{898BC481-D6ED-47AE-A8C3-61A49EBA9701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7A19885-5CB3-4368-AD69-EEB922F3F393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{66A0C9F0-8082-4E29-99E7-3762D367D963}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BCE8C46-7C50-4EE3-BBF1-A5C2FD24E77F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="223">
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -70,6 +70,24 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -88,31 +106,28 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>84,23%</t>
+    <t>88,64%</t>
   </si>
   <si>
     <t>94,7%</t>
@@ -121,127 +136,127 @@
     <t>98,58%</t>
   </si>
   <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
+    <t>93,69%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
     <t>96,96%</t>
   </si>
   <si>
     <t>93,04%</t>
   </si>
   <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
   </si>
   <si>
     <t>96,5%</t>
   </si>
   <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
     <t>96,11%</t>
   </si>
   <si>
-    <t>86,04%</t>
+    <t>88,34%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>91,22%</t>
+    <t>88,51%</t>
   </si>
   <si>
     <t>94,55%</t>
@@ -250,91 +265,100 @@
     <t>98,94%</t>
   </si>
   <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>90,51%</t>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea en 2012 (Tasa respuesta: 25,68%)</t>
   </si>
   <si>
+    <t>44,41%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
     <t>55,59%</t>
   </si>
   <si>
     <t>81,26%</t>
   </si>
   <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>89,14%</t>
+    <t>89,28%</t>
   </si>
   <si>
     <t>95,84%</t>
@@ -343,34 +367,43 @@
     <t>98,14%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
   </si>
   <si>
     <t>97,44%</t>
   </si>
   <si>
-    <t>90,99%</t>
+    <t>91,14%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>89,27%</t>
+    <t>87,58%</t>
   </si>
   <si>
     <t>98,87%</t>
@@ -379,64 +412,55 @@
     <t>96,62%</t>
   </si>
   <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>90,06%</t>
+    <t>89,25%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>97,18%</t>
@@ -448,66 +472,72 @@
     <t>98,59%</t>
   </si>
   <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
   </si>
   <si>
     <t>98,24%</t>
   </si>
   <si>
-    <t>95,93%</t>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
   </si>
   <si>
     <t>98,04%</t>
   </si>
   <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
   </si>
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea en 2015 (Tasa respuesta: 21,64%)</t>
   </si>
   <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
     <t>69,43%</t>
   </si>
   <si>
@@ -517,13 +547,19 @@
     <t>86,51%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
   </si>
   <si>
     <t>94,39%</t>
@@ -532,28 +568,22 @@
     <t>95,29%</t>
   </si>
   <si>
-    <t>85,59%</t>
+    <t>84,82%</t>
   </si>
   <si>
     <t>97,64%</t>
   </si>
   <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
   </si>
   <si>
     <t>97,45%</t>
@@ -565,61 +595,55 @@
     <t>98,81%</t>
   </si>
   <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
   </si>
   <si>
     <t>93,63%</t>
   </si>
   <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>83,09%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
   </si>
   <si>
     <t>98,95%</t>
   </si>
   <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>96,39%</t>
@@ -631,28 +655,46 @@
     <t>98,29%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,03%</t>
+    <t>97,04%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -661,25 +703,10 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
   </si>
 </sst>
 </file>
@@ -690,7 +717,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -786,39 +813,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -870,7 +897,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -981,13 +1008,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -996,6 +1016,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1060,19 +1087,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAF64306-9696-45AF-862B-F7EE9C864D43}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C6745A-49BE-45DA-B27A-32F3D9B291F4}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1189,10 +1236,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4787</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1204,34 +1251,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>9694</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>14481</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1240,10 +1287,10 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4787</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1255,34 +1302,34 @@
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>9694</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="7">
         <v>18</v>
       </c>
-      <c r="L5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" s="7">
-        <v>0</v>
-      </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>14481</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,13 +1344,13 @@
         <v>4787</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>12</v>
@@ -1312,13 +1359,13 @@
         <v>9694</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>18</v>
@@ -1327,13 +1374,13 @@
         <v>14481</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1344,49 +1391,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>23220</v>
+        <v>667</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>23124</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M7" s="7">
-        <v>71</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>46344</v>
+        <v>667</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1395,49 +1442,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>667</v>
+        <v>23220</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>23124</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="N8" s="7">
-        <v>667</v>
+        <v>46344</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1452,13 +1499,13 @@
         <v>23887</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -1467,13 +1514,13 @@
         <v>23124</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>72</v>
@@ -1482,13 +1529,13 @@
         <v>47011</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1499,25 +1546,25 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>41306</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="H10" s="7">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>38747</v>
+        <v>2900</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>35</v>
@@ -1529,10 +1576,10 @@
         <v>37</v>
       </c>
       <c r="M10" s="7">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>80052</v>
+        <v>2900</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>38</v>
@@ -1550,25 +1597,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>41306</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="I11" s="7">
-        <v>2900</v>
+        <v>38747</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>42</v>
@@ -1580,10 +1627,10 @@
         <v>44</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>124</v>
       </c>
       <c r="N11" s="7">
-        <v>2900</v>
+        <v>80052</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>45</v>
@@ -1607,13 +1654,13 @@
         <v>41306</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>67</v>
@@ -1622,13 +1669,13 @@
         <v>41647</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>129</v>
@@ -1637,13 +1684,13 @@
         <v>82952</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,25 +1701,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>33756</v>
+        <v>1367</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H13" s="7">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="I13" s="7">
-        <v>21268</v>
+        <v>3896</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>51</v>
@@ -1684,10 +1731,10 @@
         <v>53</v>
       </c>
       <c r="M13" s="7">
-        <v>87</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>55022</v>
+        <v>5264</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>54</v>
@@ -1705,25 +1752,25 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
-        <v>1367</v>
+        <v>33756</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="H14" s="7">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="I14" s="7">
-        <v>3896</v>
+        <v>21268</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>59</v>
@@ -1735,10 +1782,10 @@
         <v>61</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>87</v>
       </c>
       <c r="N14" s="7">
-        <v>5264</v>
+        <v>55022</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>62</v>
@@ -1762,13 +1809,13 @@
         <v>35123</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>42</v>
@@ -1777,13 +1824,13 @@
         <v>25164</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>96</v>
@@ -1792,13 +1839,13 @@
         <v>60286</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,49 +1856,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>38132</v>
+        <v>685</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="H16" s="7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>25677</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="M16" s="7">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>63809</v>
+        <v>685</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>69</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1860,49 +1907,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="D17" s="7">
-        <v>685</v>
+        <v>38132</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>71</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>25677</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="N17" s="7">
-        <v>685</v>
+        <v>63809</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>74</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,13 +1964,13 @@
         <v>38817</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>34</v>
@@ -1932,13 +1979,13 @@
         <v>25677</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>90</v>
@@ -1947,13 +1994,13 @@
         <v>64494</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,10 +2011,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>211</v>
+        <v>4</v>
       </c>
       <c r="D19" s="7">
-        <v>141200</v>
+        <v>2719</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>76</v>
@@ -1979,10 +2026,10 @@
         <v>78</v>
       </c>
       <c r="H19" s="7">
-        <v>178</v>
+        <v>12</v>
       </c>
       <c r="I19" s="7">
-        <v>118508</v>
+        <v>6797</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>79</v>
@@ -1991,22 +2038,22 @@
         <v>80</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="M19" s="7">
-        <v>389</v>
+        <v>16</v>
       </c>
       <c r="N19" s="7">
-        <v>259708</v>
+        <v>9516</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,49 +2062,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="D20" s="7">
-        <v>2719</v>
+        <v>141200</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" s="7">
-        <v>12</v>
+        <v>178</v>
       </c>
       <c r="I20" s="7">
-        <v>6797</v>
+        <v>118508</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M20" s="7">
-        <v>16</v>
+        <v>389</v>
       </c>
       <c r="N20" s="7">
-        <v>9516</v>
+        <v>259708</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2072,13 +2119,13 @@
         <v>143919</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>190</v>
@@ -2087,13 +2134,13 @@
         <v>125305</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>405</v>
@@ -2102,13 +2149,18 @@
         <v>269224</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2129,8 +2181,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AEE87C-4C01-4B73-9E42-1A57BE36FCFC}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622E8F6D-5F29-409F-B947-3978F664BDFA}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2146,7 +2198,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2247,49 +2299,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>2652</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>93</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>7830</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>10482</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2298,49 +2350,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2652</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7830</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>96</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>10482</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,13 +2407,13 @@
         <v>2652</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>9</v>
@@ -2370,13 +2422,13 @@
         <v>7830</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>12</v>
@@ -2385,13 +2437,13 @@
         <v>10482</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2402,49 +2454,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="D7" s="7">
-        <v>35397</v>
+        <v>1298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>98</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>101</v>
       </c>
       <c r="H7" s="7">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>33211</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="M7" s="7">
-        <v>94</v>
+        <v>2</v>
       </c>
       <c r="N7" s="7">
-        <v>68608</v>
+        <v>1298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2453,49 +2505,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>1298</v>
+        <v>35397</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>33211</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="N8" s="7">
-        <v>1298</v>
+        <v>68608</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2562,13 @@
         <v>36695</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -2525,13 +2577,13 @@
         <v>33211</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>96</v>
@@ -2540,13 +2592,13 @@
         <v>69906</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2557,49 +2609,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>49658</v>
+        <v>1305</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>108</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H10" s="7">
-        <v>75</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>49566</v>
+        <v>2171</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="M10" s="7">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="N10" s="7">
-        <v>99224</v>
+        <v>3476</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2608,49 +2660,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="D11" s="7">
-        <v>1305</v>
+        <v>49658</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="H11" s="7">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="I11" s="7">
-        <v>2171</v>
+        <v>49566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="M11" s="7">
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="N11" s="7">
-        <v>3476</v>
+        <v>99224</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2717,13 @@
         <v>50963</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>78</v>
@@ -2680,13 +2732,13 @@
         <v>51737</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>150</v>
@@ -2695,13 +2747,13 @@
         <v>102700</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2712,49 +2764,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>75</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>49106</v>
+        <v>1494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1126</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="7">
-        <v>67</v>
-      </c>
-      <c r="I13" s="7">
-        <v>42303</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>129</v>
       </c>
       <c r="M13" s="7">
-        <v>142</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>91409</v>
+        <v>2620</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>23</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2763,49 +2815,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D14" s="7">
-        <v>1494</v>
+        <v>49106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>129</v>
-      </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="I14" s="7">
-        <v>1126</v>
+        <v>42303</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>142</v>
       </c>
       <c r="N14" s="7">
-        <v>2620</v>
+        <v>91409</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>42</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2872,13 @@
         <v>50600</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>69</v>
@@ -2835,13 +2887,13 @@
         <v>43429</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>146</v>
@@ -2850,13 +2902,13 @@
         <v>94029</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,49 +2919,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>49941</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>50784</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M16" s="7">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>100725</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2918,49 +2970,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>49941</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>136</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>50784</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>137</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>100725</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +3027,13 @@
         <v>49941</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>68</v>
@@ -2990,13 +3042,13 @@
         <v>50784</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>135</v>
@@ -3005,13 +3057,13 @@
         <v>100725</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,49 +3074,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>186753</v>
+        <v>4097</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="H19" s="7">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="I19" s="7">
-        <v>183696</v>
+        <v>3296</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="M19" s="7">
-        <v>528</v>
+        <v>11</v>
       </c>
       <c r="N19" s="7">
-        <v>370448</v>
+        <v>7394</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,49 +3125,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>6</v>
+        <v>264</v>
       </c>
       <c r="D20" s="7">
-        <v>4097</v>
+        <v>186753</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>264</v>
       </c>
       <c r="I20" s="7">
-        <v>3296</v>
+        <v>183696</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M20" s="7">
-        <v>11</v>
+        <v>528</v>
       </c>
       <c r="N20" s="7">
-        <v>7394</v>
+        <v>370448</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3182,13 @@
         <v>190850</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>269</v>
@@ -3145,13 +3197,13 @@
         <v>186992</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>539</v>
@@ -3160,13 +3212,18 @@
         <v>377842</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3187,8 +3244,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E838545C-7A7F-49AC-8D4C-D35D45874ED6}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A034A0EF-3800-4DC4-B8CC-F2A438FE1928}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3204,7 +3261,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3305,49 +3362,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>4512</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>156</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I4" s="7">
-        <v>7682</v>
+        <v>0</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>12194</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3356,49 +3413,49 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>4512</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7682</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>12194</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3470,13 @@
         <v>4512</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H6" s="7">
         <v>8</v>
@@ -3428,13 +3485,13 @@
         <v>7682</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -3443,13 +3500,13 @@
         <v>12194</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3460,49 +3517,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>24207</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>162</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>23233</v>
+        <v>1149</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="M7" s="7">
+        <v>2</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1149</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="7">
-        <v>66</v>
-      </c>
-      <c r="N7" s="7">
-        <v>47440</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,49 +3568,49 @@
         <v>16</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>24207</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>18</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>167</v>
+        <v>19</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="I8" s="7">
-        <v>1149</v>
+        <v>23233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="N8" s="7">
-        <v>1149</v>
+        <v>47440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3568,13 +3625,13 @@
         <v>24207</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>35</v>
@@ -3583,13 +3640,13 @@
         <v>24382</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M9" s="7">
         <v>68</v>
@@ -3598,13 +3655,13 @@
         <v>48589</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,49 +3672,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>49761</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>13</v>
+        <v>179</v>
       </c>
       <c r="H10" s="7">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>53418</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="M10" s="7">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>103179</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>174</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>13</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,49 +3723,49 @@
         <v>16</v>
       </c>
       <c r="C11" s="7">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D11" s="7">
-        <v>0</v>
+        <v>49761</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>175</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I11" s="7">
-        <v>0</v>
+        <v>53418</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="N11" s="7">
-        <v>0</v>
+        <v>103179</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3780,13 @@
         <v>49761</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H12" s="7">
         <v>86</v>
@@ -3738,13 +3795,13 @@
         <v>53418</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M12" s="7">
         <v>160</v>
@@ -3753,13 +3810,13 @@
         <v>103179</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,49 +3827,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>30312</v>
+        <v>2062</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="H13" s="7">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="I13" s="7">
-        <v>33335</v>
+        <v>613</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="M13" s="7">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>63648</v>
+        <v>2675</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,49 +3878,49 @@
         <v>16</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D14" s="7">
-        <v>2062</v>
+        <v>30312</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="I14" s="7">
-        <v>613</v>
+        <v>33335</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="M14" s="7">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="N14" s="7">
-        <v>2675</v>
+        <v>63648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3935,13 @@
         <v>32374</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H15" s="7">
         <v>57</v>
@@ -3893,13 +3950,13 @@
         <v>33948</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M15" s="7">
         <v>108</v>
@@ -3908,13 +3965,13 @@
         <v>66323</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,49 +3982,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>37270</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>194</v>
+        <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="I16" s="7">
-        <v>43106</v>
+        <v>0</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>13</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="N16" s="7">
-        <v>80376</v>
+        <v>0</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>13</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,49 +4033,49 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>37270</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>18</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>19</v>
       </c>
       <c r="H17" s="7">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I17" s="7">
-        <v>0</v>
+        <v>43106</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>198</v>
+        <v>19</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>80376</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>18</v>
+        <v>204</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,13 +4090,13 @@
         <v>37270</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H18" s="7">
         <v>59</v>
@@ -4048,13 +4105,13 @@
         <v>43106</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M18" s="7">
         <v>111</v>
@@ -4063,13 +4120,13 @@
         <v>80376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,49 +4137,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
+        <v>3</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2062</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="7">
+        <v>3</v>
+      </c>
+      <c r="I19" s="7">
+        <v>1762</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="M19" s="7">
+        <v>6</v>
+      </c>
+      <c r="N19" s="7">
+        <v>3824</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="7">
-        <v>146063</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H19" s="7">
-        <v>242</v>
-      </c>
-      <c r="I19" s="7">
-        <v>160774</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M19" s="7">
-        <v>454</v>
-      </c>
-      <c r="N19" s="7">
-        <v>306837</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="Q19" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4131,49 +4188,49 @@
         <v>16</v>
       </c>
       <c r="C20" s="7">
-        <v>3</v>
+        <v>212</v>
       </c>
       <c r="D20" s="7">
-        <v>2062</v>
+        <v>146063</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>242</v>
       </c>
       <c r="I20" s="7">
-        <v>1762</v>
+        <v>160774</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="M20" s="7">
-        <v>6</v>
+        <v>454</v>
       </c>
       <c r="N20" s="7">
-        <v>3824</v>
+        <v>306837</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>115</v>
+        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4188,13 +4245,13 @@
         <v>148125</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H21" s="7">
         <v>245</v>
@@ -4203,13 +4260,13 @@
         <v>162536</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M21" s="7">
         <v>460</v>
@@ -4218,13 +4275,18 @@
         <v>310661</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A10-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7A19885-5CB3-4368-AD69-EEB922F3F393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C737E746-A54D-433F-9FB8-6EF18A25924D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BCE8C46-7C50-4EE3-BBF1-A5C2FD24E77F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C912EB30-DDCB-4F8E-9E35-BDAA7297B12B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="221">
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -106,13 +106,13 @@
     <t>90,01%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>11,36%</t>
+    <t>11,33%</t>
   </si>
   <si>
     <t>5,3%</t>
@@ -121,13 +121,13 @@
     <t>1,42%</t>
   </si>
   <si>
-    <t>6,31%</t>
+    <t>7,19%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>88,64%</t>
+    <t>88,67%</t>
   </si>
   <si>
     <t>94,7%</t>
@@ -136,10 +136,10 @@
     <t>98,58%</t>
   </si>
   <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>3,04%</t>
@@ -148,19 +148,16 @@
     <t>6,96%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
+    <t>1,25%</t>
   </si>
   <si>
     <t>96,96%</t>
@@ -169,70 +166,67 @@
     <t>93,04%</t>
   </si>
   <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>96,5%</t>
   </si>
   <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>11,66%</t>
+    <t>15,0%</t>
   </si>
   <si>
     <t>15,48%</t>
   </si>
   <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
   <si>
     <t>8,73%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>96,11%</t>
   </si>
   <si>
-    <t>88,34%</t>
+    <t>85,0%</t>
   </si>
   <si>
     <t>84,52%</t>
   </si>
   <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
+    <t>72,78%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>91,27%</t>
   </si>
   <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -241,7 +235,7 @@
     <t>1,77%</t>
   </si>
   <si>
-    <t>11,49%</t>
+    <t>9,39%</t>
   </si>
   <si>
     <t>5,45%</t>
@@ -250,13 +244,13 @@
     <t>1,06%</t>
   </si>
   <si>
-    <t>5,9%</t>
+    <t>5,37%</t>
   </si>
   <si>
     <t>98,23%</t>
   </si>
   <si>
-    <t>88,51%</t>
+    <t>90,61%</t>
   </si>
   <si>
     <t>94,55%</t>
@@ -265,61 +259,61 @@
     <t>98,94%</t>
   </si>
   <si>
-    <t>94,1%</t>
+    <t>94,63%</t>
   </si>
   <si>
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
   </si>
   <si>
     <t>5,42%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
   </si>
   <si>
     <t>98,11%</t>
   </si>
   <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>94,58%</t>
   </si>
   <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,98%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -343,7 +337,7 @@
     <t>3,54%</t>
   </si>
   <si>
-    <t>10,72%</t>
+    <t>11,98%</t>
   </si>
   <si>
     <t>4,16%</t>
@@ -352,13 +346,13 @@
     <t>1,86%</t>
   </si>
   <si>
-    <t>6,58%</t>
+    <t>6,63%</t>
   </si>
   <si>
     <t>96,46%</t>
   </si>
   <si>
-    <t>89,28%</t>
+    <t>88,02%</t>
   </si>
   <si>
     <t>95,84%</t>
@@ -367,91 +361,91 @@
     <t>98,14%</t>
   </si>
   <si>
-    <t>93,42%</t>
+    <t>93,37%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>8,86%</t>
+    <t>7,98%</t>
   </si>
   <si>
     <t>4,2%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>97,44%</t>
   </si>
   <si>
-    <t>91,14%</t>
+    <t>92,02%</t>
   </si>
   <si>
     <t>95,8%</t>
   </si>
   <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
   </si>
   <si>
     <t>96,62%</t>
   </si>
   <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>10,75%</t>
+    <t>9,93%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
   </si>
   <si>
     <t>97,05%</t>
   </si>
   <si>
-    <t>89,25%</t>
+    <t>90,07%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -475,166 +469,166 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
   </si>
   <si>
     <t>1,76%</t>
   </si>
   <si>
-    <t>0,61%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la diarrea en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
   </si>
   <si>
     <t>4,03%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>95,97%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la diarrea en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>3,61%</t>
@@ -661,7 +655,7 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>3,87%</t>
+    <t>3,7%</t>
   </si>
   <si>
     <t>1,08%</t>
@@ -670,22 +664,22 @@
     <t>0,34%</t>
   </si>
   <si>
-    <t>2,96%</t>
+    <t>2,88%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>96,13%</t>
+    <t>96,3%</t>
   </si>
   <si>
     <t>99,56%</t>
@@ -694,7 +688,7 @@
     <t>98,92%</t>
   </si>
   <si>
-    <t>97,04%</t>
+    <t>97,12%</t>
   </si>
   <si>
     <t>99,66%</t>
@@ -703,10 +697,10 @@
     <t>98,77%</t>
   </si>
   <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C6745A-49BE-45DA-B27A-32F3D9B291F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4635C643-9BCF-40B8-9577-26BEF968C8D0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1588,7 +1582,7 @@
         <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1606,7 +1600,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -1618,13 +1612,13 @@
         <v>38747</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>124</v>
@@ -1633,13 +1627,13 @@
         <v>80052</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,7 +1689,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1707,13 +1701,13 @@
         <v>1367</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H13" s="7">
         <v>7</v>
@@ -1722,13 +1716,13 @@
         <v>3896</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -1737,13 +1731,13 @@
         <v>5264</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,10 +1752,10 @@
         <v>33756</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -1773,13 +1767,13 @@
         <v>21268</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>87</v>
@@ -1788,13 +1782,13 @@
         <v>55022</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,7 +1844,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1862,13 +1856,13 @@
         <v>685</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1883,7 +1877,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -1892,13 +1886,13 @@
         <v>685</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,10 +1907,10 @@
         <v>38132</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>17</v>
@@ -1931,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -1943,10 +1937,10 @@
         <v>63809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>17</v>
@@ -2017,13 +2011,13 @@
         <v>2719</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H19" s="7">
         <v>12</v>
@@ -2032,13 +2026,13 @@
         <v>6797</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M19" s="7">
         <v>16</v>
@@ -2047,13 +2041,13 @@
         <v>9516</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2068,13 +2062,13 @@
         <v>141200</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H20" s="7">
         <v>178</v>
@@ -2083,13 +2077,13 @@
         <v>118508</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M20" s="7">
         <v>389</v>
@@ -2098,13 +2092,13 @@
         <v>259708</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2160,7 +2154,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2181,7 +2175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{622E8F6D-5F29-409F-B947-3978F664BDFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A3FA17-1547-4160-8EBF-D4BA14F5DCA3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2198,7 +2192,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2311,7 +2305,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2326,7 +2320,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -2359,7 +2353,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -2374,7 +2368,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -2460,13 +2454,13 @@
         <v>1298</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2481,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -2490,13 +2484,13 @@
         <v>1298</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2511,10 +2505,10 @@
         <v>35397</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>17</v>
@@ -2529,7 +2523,7 @@
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
@@ -2541,10 +2535,10 @@
         <v>68608</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -2615,13 +2609,13 @@
         <v>1305</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2630,13 +2624,13 @@
         <v>2171</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2645,13 +2639,13 @@
         <v>3476</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2666,10 +2660,10 @@
         <v>49658</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>17</v>
@@ -2681,13 +2675,13 @@
         <v>49566</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M11" s="7">
         <v>145</v>
@@ -2696,13 +2690,13 @@
         <v>99224</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,7 +2752,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2770,13 +2764,13 @@
         <v>1494</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -2785,13 +2779,13 @@
         <v>1126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -2803,10 +2797,10 @@
         <v>23</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,10 +2815,10 @@
         <v>49106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -2836,10 +2830,10 @@
         <v>42303</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -2854,10 +2848,10 @@
         <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,7 +2907,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2931,7 +2925,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2946,7 +2940,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2961,7 +2955,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2979,7 +2973,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -2994,7 +2988,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -3009,7 +3003,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -3080,13 +3074,13 @@
         <v>4097</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -3095,13 +3089,13 @@
         <v>3296</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M19" s="7">
         <v>11</v>
@@ -3110,13 +3104,13 @@
         <v>7394</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3125,13 @@
         <v>186753</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -3146,13 +3140,13 @@
         <v>183696</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M20" s="7">
         <v>528</v>
@@ -3161,13 +3155,13 @@
         <v>370448</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3223,7 +3217,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3244,7 +3238,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A034A0EF-3800-4DC4-B8CC-F2A438FE1928}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F1B379-07F9-4C1E-9EF9-C7515E18F0C0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3261,7 +3255,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3374,7 +3368,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3389,7 +3383,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3404,7 +3398,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,7 +3416,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -3437,7 +3431,7 @@
         <v>17</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
@@ -3452,7 +3446,7 @@
         <v>17</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3529,7 +3523,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>169</v>
+        <v>82</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -3538,13 +3532,13 @@
         <v>1149</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="M7" s="7">
         <v>2</v>
@@ -3553,13 +3547,13 @@
         <v>1149</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,7 +3571,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>19</v>
@@ -3589,10 +3583,10 @@
         <v>23233</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>17</v>
@@ -3604,10 +3598,10 @@
         <v>47440</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>17</v>
@@ -3684,7 +3678,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3699,7 +3693,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -3714,7 +3708,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3732,7 +3726,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
@@ -3747,7 +3741,7 @@
         <v>17</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>19</v>
@@ -3762,7 +3756,7 @@
         <v>17</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>19</v>
@@ -3821,7 +3815,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3833,13 +3827,13 @@
         <v>2062</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -3848,13 +3842,13 @@
         <v>613</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -3863,13 +3857,13 @@
         <v>2675</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3878,13 @@
         <v>30312</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
         <v>56</v>
@@ -3899,10 +3893,10 @@
         <v>33335</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>17</v>
@@ -3914,13 +3908,13 @@
         <v>63648</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,7 +3970,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3994,7 +3988,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4009,7 +4003,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4024,7 +4018,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,7 +4036,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>19</v>
@@ -4057,7 +4051,7 @@
         <v>17</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>19</v>
@@ -4072,7 +4066,7 @@
         <v>17</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>19</v>
@@ -4143,13 +4137,13 @@
         <v>2062</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4158,13 +4152,13 @@
         <v>1762</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -4173,13 +4167,13 @@
         <v>3824</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4194,13 +4188,13 @@
         <v>146063</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>242</v>
@@ -4209,13 +4203,13 @@
         <v>160774</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>454</v>
@@ -4224,13 +4218,13 @@
         <v>306837</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4286,7 +4280,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP16A10-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C737E746-A54D-433F-9FB8-6EF18A25924D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4C4946E-A27F-4128-8A5A-005F12E93C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C912EB30-DDCB-4F8E-9E35-BDAA7297B12B}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{FD0EBE38-A148-48F4-893E-1EB30F5E0CB6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="194">
   <si>
     <t>Menores según si ha consumido medicamentos para la diarrea en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -79,13 +79,19 @@
     <t>0%</t>
   </si>
   <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>No</t>
@@ -94,613 +100,526 @@
     <t>100,0%</t>
   </si>
   <si>
-    <t>73,58%</t>
+    <t>96,02%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>84,52%</t>
+  </si>
+  <si>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la diarrea en 2012 (Tasa respuesta: 25,68%)</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>97,21%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,98%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la diarrea en 2012 (Tasa respuesta: 25,68%)</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>92,56%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicamentos para la diarrea en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
   </si>
   <si>
     <t>9,93%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
   <si>
     <t>90,07%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicamentos para la diarrea en 2016 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>3,19%</t>
-  </si>
-  <si>
     <t>1,71%</t>
   </si>
   <si>
+    <t>96,81%</t>
+  </si>
+  <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
     <t>98,29%</t>
   </si>
   <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
+    <t>0,45%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
+    <t>99,55%</t>
   </si>
   <si>
     <t>98,77%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
   </si>
 </sst>
 </file>
@@ -1112,8 +1031,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4635C643-9BCF-40B8-9577-26BEF968C8D0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF9E614-D554-4D9E-9011-63ED4ACCD3FE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1245,82 +1164,82 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>9694</v>
+        <v>28007</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="N5" s="7">
-        <v>14481</v>
+        <v>60825</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -1332,72 +1251,72 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>4787</v>
+        <v>32818</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="I6" s="7">
-        <v>9694</v>
+        <v>28674</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>14481</v>
+        <v>61492</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="7">
-        <v>667</v>
+        <v>2900</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1412,73 +1331,73 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>667</v>
+        <v>2900</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7">
+        <v>38747</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="7">
-        <v>23220</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="N8" s="7">
-        <v>46344</v>
+        <v>80052</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1487,153 +1406,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>23887</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>23124</v>
+        <v>41306</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="N9" s="7">
-        <v>47011</v>
+        <v>82952</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>3896</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="7">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>1367</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="7">
-        <v>5</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2900</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>36</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>2900</v>
+        <v>5264</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>41306</v>
+        <v>21268</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="7">
+        <v>52</v>
+      </c>
+      <c r="I11" s="7">
+        <v>33756</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="7">
-        <v>62</v>
-      </c>
-      <c r="I11" s="7">
-        <v>38747</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="M11" s="7">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="N11" s="7">
-        <v>80052</v>
+        <v>55022</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1642,153 +1561,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="D12" s="7">
-        <v>41306</v>
+        <v>25164</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="I12" s="7">
-        <v>41647</v>
+        <v>35123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="N12" s="7">
-        <v>82952</v>
+        <v>60286</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1367</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>685</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" s="7">
-        <v>7</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3896</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="M13" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N13" s="7">
-        <v>5264</v>
+        <v>685</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>33756</v>
+        <v>25677</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="7">
         <v>55</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="7">
-        <v>35</v>
-      </c>
       <c r="I14" s="7">
-        <v>21268</v>
+        <v>38132</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M14" s="7">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N14" s="7">
-        <v>55022</v>
+        <v>63809</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1797,153 +1716,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D15" s="7">
-        <v>35123</v>
+        <v>25677</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I15" s="7">
-        <v>25164</v>
+        <v>38817</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="N15" s="7">
-        <v>60286</v>
+        <v>64494</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>685</v>
+        <v>6797</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2719</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N16" s="7">
-        <v>685</v>
+        <v>9516</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>55</v>
+        <v>178</v>
       </c>
       <c r="D17" s="7">
-        <v>38132</v>
+        <v>118508</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="H17" s="7">
-        <v>34</v>
+        <v>211</v>
       </c>
       <c r="I17" s="7">
-        <v>25677</v>
+        <v>141200</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="M17" s="7">
-        <v>89</v>
+        <v>389</v>
       </c>
       <c r="N17" s="7">
-        <v>63809</v>
+        <v>259708</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1952,217 +1871,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>56</v>
+        <v>190</v>
       </c>
       <c r="D18" s="7">
-        <v>38817</v>
+        <v>125305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>34</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>25677</v>
+        <v>143919</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>90</v>
+        <v>405</v>
       </c>
       <c r="N18" s="7">
-        <v>64494</v>
+        <v>269224</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2719</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="7">
-        <v>12</v>
-      </c>
-      <c r="I19" s="7">
-        <v>6797</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="M19" s="7">
-        <v>16</v>
-      </c>
-      <c r="N19" s="7">
-        <v>9516</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>211</v>
-      </c>
-      <c r="D20" s="7">
-        <v>141200</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="A19" t="s">
         <v>85</v>
       </c>
-      <c r="H20" s="7">
-        <v>178</v>
-      </c>
-      <c r="I20" s="7">
-        <v>118508</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M20" s="7">
-        <v>389</v>
-      </c>
-      <c r="N20" s="7">
-        <v>259708</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>143919</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>190</v>
-      </c>
-      <c r="I21" s="7">
-        <v>125305</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>405</v>
-      </c>
-      <c r="N21" s="7">
-        <v>269224</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2175,8 +1938,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A3FA17-1547-4160-8EBF-D4BA14F5DCA3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3149FE2D-F690-41E6-B7B0-D6F17CE99B04}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2192,7 +1955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2305,85 +2068,85 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1298</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D5" s="7">
-        <v>2652</v>
+        <v>41042</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="I5" s="7">
-        <v>7830</v>
+        <v>38048</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="7">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="N5" s="7">
-        <v>10482</v>
+        <v>79090</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -2395,153 +2158,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="D6" s="7">
-        <v>2652</v>
+        <v>41042</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I6" s="7">
-        <v>7830</v>
+        <v>39346</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>12</v>
+        <v>108</v>
       </c>
       <c r="N6" s="7">
-        <v>10482</v>
+        <v>80388</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="7">
-        <v>1298</v>
+        <v>2171</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>99</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>1305</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7" s="7">
-        <v>1298</v>
+        <v>3476</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>103</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7">
-        <v>35397</v>
+        <v>49566</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>17</v>
+        <v>107</v>
       </c>
       <c r="H8" s="7">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="I8" s="7">
-        <v>33211</v>
+        <v>49658</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>19</v>
       </c>
       <c r="M8" s="7">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="N8" s="7">
-        <v>68608</v>
+        <v>99224</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,54 +2313,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D9" s="7">
-        <v>36695</v>
+        <v>51737</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>33211</v>
+        <v>50963</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="N9" s="7">
-        <v>69906</v>
+        <v>102700</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2606,97 +2369,97 @@
         <v>2</v>
       </c>
       <c r="D10" s="7">
-        <v>1305</v>
+        <v>1126</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H10" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>2171</v>
+        <v>1494</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>3476</v>
+        <v>2620</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D11" s="7">
-        <v>49658</v>
+        <v>42303</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" s="7">
         <v>75</v>
       </c>
       <c r="I11" s="7">
-        <v>49566</v>
+        <v>49106</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="M11" s="7">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="N11" s="7">
-        <v>99224</v>
+        <v>91409</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2705,153 +2468,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D12" s="7">
-        <v>50963</v>
+        <v>43429</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I12" s="7">
-        <v>51737</v>
+        <v>50600</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N12" s="7">
-        <v>102700</v>
+        <v>94029</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>1494</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>125</v>
       </c>
       <c r="H13" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>1126</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2620</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D14" s="7">
-        <v>49106</v>
+        <v>50784</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
       </c>
       <c r="I14" s="7">
-        <v>42303</v>
+        <v>49941</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>132</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="N14" s="7">
-        <v>91409</v>
+        <v>100725</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2860,99 +2623,99 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D15" s="7">
-        <v>50600</v>
+        <v>50784</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I15" s="7">
-        <v>43429</v>
+        <v>49941</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="N15" s="7">
-        <v>94029</v>
+        <v>100725</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>3296</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H16" s="7">
+        <v>6</v>
+      </c>
+      <c r="I16" s="7">
+        <v>4097</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" s="7">
         <v>11</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="N16" s="7">
+        <v>7394</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="H16" s="7">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="M16" s="7">
-        <v>0</v>
-      </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>138</v>
@@ -2961,52 +2724,52 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>67</v>
+        <v>264</v>
       </c>
       <c r="D17" s="7">
-        <v>49941</v>
+        <v>183696</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>139</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>124</v>
       </c>
       <c r="H17" s="7">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="I17" s="7">
-        <v>50784</v>
+        <v>186753</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="M17" s="7">
-        <v>135</v>
+        <v>528</v>
       </c>
       <c r="N17" s="7">
-        <v>100725</v>
+        <v>370448</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3015,217 +2778,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="D18" s="7">
-        <v>49941</v>
+        <v>186992</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="I18" s="7">
-        <v>50784</v>
+        <v>190850</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>135</v>
+        <v>539</v>
       </c>
       <c r="N18" s="7">
-        <v>100725</v>
+        <v>377842</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>6</v>
-      </c>
-      <c r="D19" s="7">
-        <v>4097</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3296</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M19" s="7">
-        <v>11</v>
-      </c>
-      <c r="N19" s="7">
-        <v>7394</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>264</v>
-      </c>
-      <c r="D20" s="7">
-        <v>186753</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H20" s="7">
-        <v>264</v>
-      </c>
-      <c r="I20" s="7">
-        <v>183696</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="M20" s="7">
-        <v>528</v>
-      </c>
-      <c r="N20" s="7">
-        <v>370448</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>270</v>
-      </c>
-      <c r="D21" s="7">
-        <v>190850</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>269</v>
-      </c>
-      <c r="I21" s="7">
-        <v>186992</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>539</v>
-      </c>
-      <c r="N21" s="7">
-        <v>377842</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>92</v>
+      <c r="A19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3238,8 +2845,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8F1B379-07F9-4C1E-9EF9-C7515E18F0C0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870DE7F2-2124-4DA8-95CF-9FBD83242127}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3255,7 +2862,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3356,19 +2963,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3383,70 +2990,70 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="D5" s="7">
-        <v>4512</v>
+        <v>30915</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I5" s="7">
-        <v>7682</v>
+        <v>28719</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="N5" s="7">
-        <v>12194</v>
+        <v>59634</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>19</v>
@@ -3458,54 +3065,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="D6" s="7">
-        <v>4512</v>
+        <v>32064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="I6" s="7">
-        <v>7682</v>
+        <v>28719</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="N6" s="7">
-        <v>12194</v>
+        <v>60783</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3523,88 +3130,88 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>82</v>
+        <v>156</v>
       </c>
       <c r="H7" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>1149</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="M7" s="7">
-        <v>2</v>
-      </c>
-      <c r="N7" s="7">
-        <v>1149</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D8" s="7">
-        <v>24207</v>
+        <v>53418</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="7">
+        <v>74</v>
+      </c>
+      <c r="I8" s="7">
+        <v>49761</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="7">
-        <v>33</v>
-      </c>
-      <c r="I8" s="7">
-        <v>23233</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>171</v>
-      </c>
       <c r="K8" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="N8" s="7">
-        <v>47440</v>
+        <v>103179</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>19</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3613,153 +3220,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7">
-        <v>24207</v>
+        <v>53418</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="7">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="I9" s="7">
-        <v>24382</v>
+        <v>49761</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="N9" s="7">
-        <v>48589</v>
+        <v>103179</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>12</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="H10" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>12</v>
+        <v>165</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N10" s="7">
-        <v>0</v>
+        <v>2675</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>12</v>
+        <v>168</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D11" s="7">
-        <v>49761</v>
+        <v>33335</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>170</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="7">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="I11" s="7">
-        <v>53418</v>
+        <v>30312</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>17</v>
+        <v>172</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="M11" s="7">
-        <v>160</v>
+        <v>104</v>
       </c>
       <c r="N11" s="7">
-        <v>103179</v>
+        <v>63648</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>17</v>
+        <v>175</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3768,153 +3375,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>49761</v>
+        <v>33948</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H12" s="7">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="I12" s="7">
-        <v>53418</v>
+        <v>32374</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7">
-        <v>160</v>
+        <v>108</v>
       </c>
       <c r="N12" s="7">
-        <v>103179</v>
+        <v>66323</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D13" s="7">
-        <v>2062</v>
+        <v>0</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="7">
-        <v>613</v>
+        <v>0</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M13" s="7">
-        <v>4</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2675</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>186</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>30312</v>
+        <v>43106</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="I14" s="7">
-        <v>33335</v>
+        <v>37270</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="M14" s="7">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="N14" s="7">
-        <v>63648</v>
+        <v>80376</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>19</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3923,153 +3530,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="D15" s="7">
-        <v>32374</v>
+        <v>43106</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H15" s="7">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I15" s="7">
-        <v>33948</v>
+        <v>37270</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M15" s="7">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="N15" s="7">
-        <v>66323</v>
+        <v>80376</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>1762</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>2062</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>186</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>198</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>3824</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>188</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>187</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>52</v>
+        <v>242</v>
       </c>
       <c r="D17" s="7">
-        <v>37270</v>
+        <v>160774</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="I17" s="7">
-        <v>43106</v>
+        <v>146063</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>17</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>93</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>111</v>
+        <v>454</v>
       </c>
       <c r="N17" s="7">
-        <v>80376</v>
+        <v>306837</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>19</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,217 +3685,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>52</v>
+        <v>245</v>
       </c>
       <c r="D18" s="7">
-        <v>37270</v>
+        <v>162536</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>43106</v>
+        <v>148125</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
-        <v>111</v>
+        <v>460</v>
       </c>
       <c r="N18" s="7">
-        <v>80376</v>
+        <v>310661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2062</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1762</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="M19" s="7">
-        <v>6</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3824</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>212</v>
-      </c>
-      <c r="D20" s="7">
-        <v>146063</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="H20" s="7">
-        <v>242</v>
-      </c>
-      <c r="I20" s="7">
-        <v>160774</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="M20" s="7">
-        <v>454</v>
-      </c>
-      <c r="N20" s="7">
-        <v>306837</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>215</v>
-      </c>
-      <c r="D21" s="7">
-        <v>148125</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H21" s="7">
-        <v>245</v>
-      </c>
-      <c r="I21" s="7">
-        <v>162536</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>460</v>
-      </c>
-      <c r="N21" s="7">
-        <v>310661</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>92</v>
+      <c r="A19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
